--- a/USD_EUR.xlsx
+++ b/USD_EUR.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,158 +717,14 @@
       <c r="B15" s="3">
         <v>75.0626</v>
       </c>
-      <c r="C15" s="3">
-        <v>-0.09629999999999939</v>
-      </c>
       <c r="D15" s="2">
         <v>44320</v>
       </c>
       <c r="E15" s="3">
         <v>90.2002</v>
       </c>
-      <c r="F15" s="3">
-        <v>-0.2198000000000064</v>
-      </c>
       <c r="G15" s="3">
         <f>E15/B15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2">
-        <v>44316</v>
-      </c>
-      <c r="B16" s="3">
-        <v>75.1589</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.6856999999999971</v>
-      </c>
-      <c r="D16" s="2">
-        <v>44316</v>
-      </c>
-      <c r="E16" s="3">
-        <v>90.42</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="G16" s="3">
-        <f>E16/B16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2">
-        <v>44315</v>
-      </c>
-      <c r="B17" s="3">
-        <v>74.47320000000001</v>
-      </c>
-      <c r="C17" s="3">
-        <v>-0.2260999999999882</v>
-      </c>
-      <c r="D17" s="2">
-        <v>44315</v>
-      </c>
-      <c r="E17" s="3">
-        <v>90.22</v>
-      </c>
-      <c r="F17" s="3">
-        <v>-0.1424999999999983</v>
-      </c>
-      <c r="G17" s="3">
-        <f>E17/B17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2">
-        <v>44314</v>
-      </c>
-      <c r="B18" s="3">
-        <v>74.69929999999999</v>
-      </c>
-      <c r="C18" s="3">
-        <v>-0.1492000000000075</v>
-      </c>
-      <c r="D18" s="2">
-        <v>44314</v>
-      </c>
-      <c r="E18" s="3">
-        <v>90.3625</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-0.03119999999999834</v>
-      </c>
-      <c r="G18" s="3">
-        <f>E18/B18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2">
-        <v>44313</v>
-      </c>
-      <c r="B19" s="3">
-        <v>74.8485</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.01040000000000418</v>
-      </c>
-      <c r="D19" s="2">
-        <v>44313</v>
-      </c>
-      <c r="E19" s="3">
-        <v>90.3937</v>
-      </c>
-      <c r="F19" s="3">
-        <v>-0.0134000000000043</v>
-      </c>
-      <c r="G19" s="3">
-        <f>E19/B19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2">
-        <v>44312</v>
-      </c>
-      <c r="B20" s="3">
-        <v>74.8381</v>
-      </c>
-      <c r="C20" s="3">
-        <v>-0.0952000000000055</v>
-      </c>
-      <c r="D20" s="2">
-        <v>44312</v>
-      </c>
-      <c r="E20" s="3">
-        <v>90.4071</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.01860000000000639</v>
-      </c>
-      <c r="G20" s="3">
-        <f>E20/B20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2">
-        <v>44309</v>
-      </c>
-      <c r="B21" s="3">
-        <v>74.9333</v>
-      </c>
-      <c r="D21" s="2">
-        <v>44309</v>
-      </c>
-      <c r="E21" s="3">
-        <v>90.38849999999999</v>
-      </c>
-      <c r="G21" s="3">
-        <f>E21/B21</f>
         <v>0</v>
       </c>
     </row>
